--- a/MechanismOfAction/BCIO-moa-hierarchy.xlsx
+++ b/MechanismOfAction/BCIO-moa-hierarchy.xlsx
@@ -1686,14 +1686,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:050323</t>
+          <t>BCIO:006133</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>subjective feeling</t>
+          <t>behavioural motivation</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1703,7 +1703,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that involves the experience of internal or external sensory stimuli.</t>
+          <t>A &lt;mental process&gt; that energises and directs a behaviour.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -1713,19 +1713,19 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Feeling ticklish, feeling tingling</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>If a subjective feeling is valenced (i.e., an affective process), the more granular class “subjective affective feeling” can be used to capture this feeling.</t>
+          <t>"Protection motivation" in the Protection motivation; "Health behaviour-related needs" in the Health Behaviour Internalisation Model; "Motivation" in the Motivation-Opportunities-Abilities; "Motivation" in the COM-B; "Personal motivation" in the Information-Motivation-Behavioural Skills Model of Adherence Behaviour; "Adherence motivation" in the   Information-Motivation-Behavioural Skills Model of Adherence Behaviour; "Motivation" in the Self-Determination Theory; "Motivation to perform" in the Needs-Opportunity-Abilities Model; "Motivation" in the Information-Motivation-Behavioural Skills; "Drive" in the Social Learning Theory; "Motivational sphere" in the Temporal Self-Regulation Theory; "Directive function" in the Goal Setting Theory</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Thoughts, feelings, impulses and inhibitory processes that energise and direct a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:050863</t>
+          <t>BCIO:006134</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1733,7 +1733,7 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>feeling of uncertainty</t>
+          <t>automatic behavioural motivation</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -1742,36 +1742,41 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>A &lt;subjective feeling&gt; of not knowing something.</t>
+          <t>&lt;Behavioural motivation&gt; that arises from emotions and impulses that result from associative learning or innate dispositions.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>"Automatic motivation" in the COM-B; "Inner drives or pushes" in the Containment Theory</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:050864</t>
+          <t>BCIO:050713</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>feeling of uncertainty about one’s behaviour</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>motivation to reduce harm</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>A &lt;feeling of uncertainty&gt; about the best course of action.</t>
+          <t>&lt;Behavioural motivation&gt; to reduce harm.</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -1781,31 +1786,36 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>"Uncertainty" in the Diffusion of Innovations</t>
+          <t>"Protective motivation" in the Extended Parallel Processing Model</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Reducing harm involves both avoiding or reducing possible harm in the future and ending or reducing harm that is ongoing.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:006133</t>
+          <t>BCIO:050711</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>behavioural motivation</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>motivation to avert harm</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that energises and directs a behaviour.</t>
+          <t>&lt;Motivation to reduce harm&gt; that may occur in the future.</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -1815,53 +1825,43 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>"Protection motivation" in the Protection motivation; "Health behaviour-related needs" in the Health Behaviour Internalisation Model; "Motivation" in the Motivation-Opportunities-Abilities; "Motivation" in the COM-B; "Personal motivation" in the Information-Motivation-Behavioural Skills Model of Adherence Behaviour; "Adherence motivation" in the   Information-Motivation-Behavioural Skills Model of Adherence Behaviour; "Motivation" in the Self-Determination Theory; "Motivation to perform" in the Needs-Opportunity-Abilities Model; "Motivation" in the Information-Motivation-Behavioural Skills; "Drive" in the Social Learning Theory; "Motivational sphere" in the Temporal Self-Regulation Theory; "Directive function" in the Goal Setting Theory</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>Thoughts, feelings, impulses and inhibitory processes that energise and direct a behaviour.</t>
+          <t>"Protective motivation" in the Extended Parallel Processing Model</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:006134</t>
+          <t>BCIO:050712</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>automatic behavioural motivation</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>motivation to reduce current harm</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>&lt;Behavioural motivation&gt; that arises from emotions and impulses that result from associative learning or innate dispositions.</t>
+          <t>&lt;Motivation to reduce harm&gt; that is ongoing.</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>"Automatic motivation" in the COM-B; "Inner drives or pushes" in the Containment Theory</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:050713</t>
+          <t>BCIO:006059</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1869,7 +1869,7 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>motivation to reduce harm</t>
+          <t>motivation to comply</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -1878,7 +1878,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>&lt;Behavioural motivation&gt; to reduce harm.</t>
+          <t>A &lt;behavioural motivation&gt; to act in accordance with the likely approval of others.</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -1886,38 +1886,38 @@
           <t>Mechanisms of action</t>
         </is>
       </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>willingness to comply</t>
+        </is>
+      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>"Protective motivation" in the Extended Parallel Processing Model</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Reducing harm involves both avoiding or reducing possible harm in the future and ending or reducing harm that is ongoing.</t>
+          <t>"Motivation to comply" in the Action Theory Model of Consumption; "Partner engagement" in the AIDS Risk Reduction Model; "Motivation to comply" in the Theory of Planned Behaviour; "Motivation to comply" in the Information-Motivation-Behavioural Skills Model of Adherence Behaviour; "Motivation to comply" in the Theory of Triadic Influence; "Motivation to comply" in the Systems Model of Behaviour Change; "Social normative beliefs" in the Theory of Triadic Influence</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:050711</t>
+          <t>BCIO:050767</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>motivation to avert harm</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>self-motive</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>&lt;Motivation to reduce harm&gt; that may occur in the future.</t>
+          <t>A &lt;behavioural motivation&gt; that arises from a person’s self-identity.</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -1927,60 +1927,65 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>"Protective motivation" in the Extended Parallel Processing Model</t>
+          <t>"Self Needs" in the Health Behaviour Internalisation Model; "Self-needs" in the Health Behaviour Internalisation Model</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:050712</t>
+          <t>BCIO:006307</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>extrinsic motivation</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>motivation to reduce current harm</t>
-        </is>
-      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>&lt;Motivation to reduce harm&gt; that is ongoing.</t>
+          <t>&lt;Behaviour motivation&gt; that is based on external rewards, punishments or pressure regarding a behaviour.</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>controlled motivation</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:006059</t>
+          <t>BCIO:050656</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>motivation to comply</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>extrinsic social motivation</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>A &lt;behavioural motivation&gt; to act in accordance with the likely approval of others.</t>
+          <t>An &lt;extrinsic motivation&gt; that derives from external rewards, punishments or pressure regarding a behaviour.</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -1988,21 +1993,21 @@
           <t>Mechanisms of action</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>willingness to comply</t>
-        </is>
-      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>"Motivation to comply" in the Action Theory Model of Consumption; "Partner engagement" in the AIDS Risk Reduction Model; "Motivation to comply" in the Theory of Planned Behaviour; "Motivation to comply" in the Information-Motivation-Behavioural Skills Model of Adherence Behaviour; "Motivation to comply" in the Theory of Triadic Influence; "Motivation to comply" in the Systems Model of Behaviour Change; "Social normative beliefs" in the Theory of Triadic Influence</t>
+          <t>"Social motivation" in the Information-Motivation-Behavioural Skills Model of Adherence Behaviour</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Pressure can include persuasion.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:050767</t>
+          <t>BCIO:050318</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -2010,7 +2015,7 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>self-motive</t>
+          <t>reflective behavioural motivation</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -2019,7 +2024,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>A &lt;behavioural motivation&gt; that arises from a person’s self-identity.</t>
+          <t>&lt;Behavioural motivation&gt; that involves reflective thinking.</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2029,14 +2034,19 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>"Self Needs" in the Health Behaviour Internalisation Model; "Self-needs" in the Health Behaviour Internalisation Model</t>
+          <t>"Reflective motivation" in the COM-B; "Value perception / motives" in the Social Influence Model</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Motivation to enact a behaviour that involves judgements, intentions or plans.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:006307</t>
+          <t>BCIO:050947</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -2044,7 +2054,7 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>extrinsic motivation</t>
+          <t>motivation to deviate</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -2053,80 +2063,65 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>&lt;Behaviour motivation&gt; that is based on external rewards, punishments or pressure regarding a behaviour.</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
+          <t>A &lt;behavioural motivation&gt; to act contrary to likely approval of others.</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>controlled motivation</t>
+          <t>willingness to deviate</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:050656</t>
+          <t>BCIO:006302</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>extrinsic social motivation</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>autonomous motivation</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>An &lt;extrinsic motivation&gt; that derives from external rewards, punishments or pressure regarding a behaviour.</t>
+          <t>&lt;Behavioural motivation&gt; that is internally generated and based on a behaviour being interesting or valuable to an individual.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>"Social motivation" in the Information-Motivation-Behavioural Skills Model of Adherence Behaviour</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Pressure can include persuasion.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:050318</t>
+          <t>BCIO:006304</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>reflective behavioural motivation</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>behavioural importance-based motivation</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>&lt;Behavioural motivation&gt; that involves reflective thinking.</t>
+          <t>&lt;Autonomous motivation&gt; due to the perceived value or importance of the behaviour to oneself.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2134,96 +2129,106 @@
           <t>Mechanisms of action</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>"Reflective motivation" in the COM-B; "Value perception / motives" in the Social Influence Model</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>Motivation to enact a behaviour that involves judgements, intentions or plans.</t>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>identified motivation; identified regulation</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:050947</t>
+          <t>BCIO:006136</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>motivation to deviate</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>intrinsic motivation</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>A &lt;behavioural motivation&gt; to act contrary to likely approval of others.</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>willingness to deviate</t>
+          <t>&lt;Autonomous motivation&gt; due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>"Intrinsic motivation / goals" in the Self-Determination Theory; "Computer playfulness" in the Technology Acceptance Model</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>The phrase 'benefits to oneself' includes the reduction of unpleasant internal states.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:006302</t>
+          <t>BCIO:006308</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>autonomous motivation</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>need-based motivation</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>&lt;Behavioural motivation&gt; that is internally generated and based on a behaviour being interesting or valuable to an individual.</t>
+          <t>&lt;Autonomous motivation&gt; due to a behaviour being perceived to satisfy a psychological need.</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>integrated motivation; integrated regulation</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:006304</t>
+          <t>BCIO:006300</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>behavioural importance-based motivation</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>approval-based motivation</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>&lt;Autonomous motivation&gt; due to the perceived value or importance of the behaviour to oneself.</t>
+          <t>A &lt;need-based motivation&gt; related to gaining or maintaining social approval or a positive self-evaluation.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -2233,53 +2238,48 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>identified motivation; identified regulation</t>
+          <t>introjected motivation; introjected regulation</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>"Introjected regulation" in the The Transcontextual Model of Motivation</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:006136</t>
+          <t>BCIO:050634</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>intrinsic motivation</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>drive process</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>&lt;Autonomous motivation&gt; due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
+          <t>A &lt;behavioural motivation&gt; that results from a physiological need.</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>"Intrinsic motivation / goals" in the Self-Determination Theory; "Computer playfulness" in the Technology Acceptance Model</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>The phrase 'benefits to oneself' includes the reduction of unpleasant internal states.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:006308</t>
+          <t>BCIO:050680</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2288,7 +2288,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>need-based motivation</t>
+          <t>innate drive</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2296,7 +2296,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>&lt;Autonomous motivation&gt; due to a behaviour being perceived to satisfy a psychological need.</t>
+          <t>A &lt;drive process&gt;in which the physiological need is determined prenatally.</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -2304,33 +2304,33 @@
           <t>Mechanisms of action</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>integrated motivation; integrated regulation</t>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Innate drives" in the Social Learning Theory </t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:006300</t>
+          <t>BCIO:050561</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>approval-based motivation</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>acquired drive</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>A &lt;need-based motivation&gt; related to gaining or maintaining social approval or a positive self-evaluation.</t>
+          <t>A &lt;drive process&gt; in which the physiological need is acquired through experience.</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -2338,67 +2338,67 @@
           <t>Mechanisms of action</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>introjected motivation; introjected regulation</t>
-        </is>
-      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>"Introjected regulation" in the The Transcontextual Model of Motivation</t>
+          <t xml:space="preserve">"Acquired drives" in the Social Learning Theory </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:050634</t>
+          <t>BCIO:050236</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>drive process</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>self-binding</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>A &lt;behavioural motivation&gt; that results from a physiological need.</t>
+          <t>A &lt;mental process&gt; that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Pre-commitment</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:050680</t>
+          <t>BCIO:050323</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>subjective feeling</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>innate drive</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>A &lt;drive process&gt;in which the physiological need is determined prenatally.</t>
+          <t>A &lt;mental process&gt; that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -2408,65 +2408,65 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Innate drives" in the Social Learning Theory </t>
+          <t>Feeling ticklish, feeling tingling</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>If a subjective feeling is valenced (i.e., an affective process), the more granular class “subjective affective feeling” can be used to capture this feeling.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:050561</t>
+          <t>BCIO:050863</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>acquired drive</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>feeling of uncertainty</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>A &lt;drive process&gt; in which the physiological need is acquired through experience.</t>
+          <t>A &lt;subjective feeling&gt; of not knowing something.</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"Acquired drives" in the Social Learning Theory </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:050236</t>
+          <t>BCIO:050864</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>self-binding</t>
-        </is>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>feeling of uncertainty about one’s behaviour</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
+          <t>A &lt;feeling of uncertainty&gt; about the best course of action.</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -2474,9 +2474,9 @@
           <t>Mechanisms of action</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Pre-commitment</t>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>"Uncertainty" in the Diffusion of Innovations</t>
         </is>
       </c>
     </row>

--- a/MechanismOfAction/BCIO-moa-hierarchy.xlsx
+++ b/MechanismOfAction/BCIO-moa-hierarchy.xlsx
@@ -676,7 +676,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>A &lt;material anatomical entity&gt; that is a single connected structure with inherent 3D shape generated by coordinated expression of the organism's own genome.</t>
+          <t>Material anatomical entity that is a single connected structure with inherent 3D shape generated by coordinated expression of the organism's own genome.</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -860,7 +860,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>A &lt;material anatomical entity&gt; that is a single connected structure with inherent 3D shape generated by coordinated expression of the organism's own genome.</t>
+          <t>Material anatomical entity that is a single connected structure with inherent 3D shape generated by coordinated expression of the organism's own genome.</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1179,7 +1179,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization.</t>
+          <t>Un établissement de santé qui a pour fonction d'entreposer, préparer, distribuer et surveiller l'utilisation des médicaments parmi les patients d'une zone géographique donnée ou suivis dans une organisation de soin donnée.</t>
         </is>
       </c>
     </row>
@@ -2304,7 +2304,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>A human or collection of humans that occupies a housing unit by storing their possessions there and habitually sleeping there thereby participating in the realization of that housing unit's residence function.</t>
+          <t>A human or collection of humans that occupies a housing unit by storing their possessions there and habitually sleeping there thereby participating in the realization of its residence function.</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>A &lt;material entity&gt; consisting of multiple components that are causally integrated.</t>
+          <t>A material entity consisting of multiple components that are causally integrated.</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -3139,7 +3139,7 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
-          <t>An environmental system which includes both living and non-living components.</t>
+          <t>An &lt;environmental system&gt; which includes both living and non-living components.</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -5244,7 +5244,7 @@
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr">
         <is>
-          <t>A person between 13 and 19 years of age.</t>
+          <t>A person who is between the ages of  13 and 19.</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6006,7 @@
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>realizable entity</t>
+          <t>realizable</t>
         </is>
       </c>
       <c r="E191" t="inlineStr"/>
@@ -6270,7 +6270,7 @@
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr">
         <is>
-          <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical range or context.</t>
+          <t>A &lt;bodily disposition&gt; whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical range or context.</t>
         </is>
       </c>
     </row>
@@ -7436,7 +7436,7 @@
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr">
         <is>
-          <t>substance dependence</t>
+          <t>addiction strength</t>
         </is>
       </c>
       <c r="H233" t="inlineStr"/>
@@ -7485,7 +7485,7 @@
       <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr">
         <is>
-          <t>A &lt;bodily disposition&gt; to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
+          <t>A bodily disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -7731,7 +7731,7 @@
       <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr">
         <is>
-          <t>A &lt;bodily disposition&gt; that is realized in a mental process.</t>
+          <t>A bodily disposition that is realized in a mental process.</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -8974,7 +8974,7 @@
       <c r="M273" t="inlineStr"/>
       <c r="N273" t="inlineStr">
         <is>
-          <t>A mental disposition to represent a proposition to be true.</t>
+          <t>A &lt;mental disposition&gt; to represent a proposition to be true.</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -13693,7 +13693,7 @@
       <c r="M397" t="inlineStr"/>
       <c r="N397" t="inlineStr">
         <is>
-          <t>A mental disposition towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm.</t>
+          <t>A &lt;mental disposition&gt; towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm.</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
@@ -16960,7 +16960,7 @@
       <c r="M483" t="inlineStr"/>
       <c r="N483" t="inlineStr">
         <is>
-          <t>A &lt;disposition&gt; which is realised by an environmental system or system parts thereof.</t>
+          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
         </is>
       </c>
       <c r="Q483" t="inlineStr">
@@ -18141,7 +18141,7 @@
       <c r="M514" t="inlineStr"/>
       <c r="N514" t="inlineStr">
         <is>
-          <t>The personal information that indicates an individual's or his/her family's economic and social position in relation to others, based on income, education, and occupation.</t>
+          <t>A personal attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.</t>
         </is>
       </c>
     </row>
@@ -18403,7 +18403,7 @@
       <c r="M523" t="inlineStr"/>
       <c r="N523" t="inlineStr">
         <is>
-          <t>A personal role that is realised in a person by doing a specified type of work or working in a specified way.</t>
+          <t>A &lt;personal role&gt; that is realised in a person by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="Q523" t="inlineStr">
@@ -18441,7 +18441,7 @@
       <c r="M524" t="inlineStr"/>
       <c r="N524" t="inlineStr">
         <is>
-          <t>A &lt;personal role&gt; that is realised in human social processes.</t>
+          <t>A personal role that is realised in human social processes.</t>
         </is>
       </c>
       <c r="Q524" t="inlineStr">
@@ -19227,7 +19227,7 @@
       <c r="M551" t="inlineStr"/>
       <c r="N551" t="inlineStr">
         <is>
-          <t>A &lt;representation&gt; which specifically depends on an anatomical structure in the cognitive system of an organism.</t>
+          <t>A representation which specifically depends on an anatomical structure in the cognitive system of an organism.</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
@@ -19925,7 +19925,7 @@
       <c r="M570" t="inlineStr"/>
       <c r="N570" t="inlineStr">
         <is>
-          <t>A &lt;cognitive representation&gt; of themselves by a person or group.</t>
+          <t>A cognitive representation of themselves by a person or group.</t>
         </is>
       </c>
       <c r="R570" t="inlineStr">
@@ -20253,7 +20253,7 @@
       <c r="M581" t="inlineStr"/>
       <c r="N581" t="inlineStr">
         <is>
-          <t>A self-identity that represents a relation between oneself and another person or group.</t>
+          <t>A &lt;self-identity&gt; that represents a relation between oneself and another person or group</t>
         </is>
       </c>
     </row>
@@ -20461,7 +20461,7 @@
       <c r="M587" t="inlineStr"/>
       <c r="N587" t="inlineStr">
         <is>
-          <t>A cognitive representation of the emotional relevance of an object or event to the organism.</t>
+          <t>A &lt;cognitive representation&gt; of the emotional relevance of an object or event to the organism.</t>
         </is>
       </c>
       <c r="P587" t="inlineStr">
@@ -20572,7 +20572,7 @@
       <c r="M590" t="inlineStr"/>
       <c r="N590" t="inlineStr">
         <is>
-          <t>An &lt;appraisal of causal agency&gt; that represents an evaluation that an event was caused by another person.</t>
+          <t>An appraisal that represents an evaluation that an event was caused by another person.</t>
         </is>
       </c>
       <c r="R590" t="inlineStr">
@@ -20709,7 +20709,7 @@
       <c r="M594" t="inlineStr"/>
       <c r="N594" t="inlineStr">
         <is>
-          <t>An affective appraisal which represents an evaluation of how threatening an object or situation is.</t>
+          <t>An &lt;emotional-relevance appraisal&gt; which represents an evaluation of how threatening an object or situation is.</t>
         </is>
       </c>
       <c r="Q594" t="inlineStr">
@@ -20808,7 +20808,7 @@
       <c r="M597" t="inlineStr"/>
       <c r="N597" t="inlineStr">
         <is>
-          <t>An &lt;appraisal of desirability&gt; that represents an evaluation of the desirability of the expected consequences of an event.</t>
+          <t>An appraisal of desirability that represents an evaluation of the desirability of the expected consequences of an event.</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
@@ -21092,7 +21092,7 @@
       <c r="M605" t="inlineStr"/>
       <c r="N605" t="inlineStr">
         <is>
-          <t>An &lt;emotional-relevance appraisal&gt; that represents an evaluation of the pleasantness of an object or event.</t>
+          <t>An affective appraisal that represents an evaluation of the pleasantness of an object or event.</t>
         </is>
       </c>
       <c r="R605" t="inlineStr">
@@ -21924,7 +21924,7 @@
       <c r="M629" t="inlineStr"/>
       <c r="N629" t="inlineStr">
         <is>
-          <t>The personal information that indicates an individual's or his/her family's economic and social position in relation to others, based on income, education, and occupation.</t>
+          <t>A personal attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.</t>
         </is>
       </c>
     </row>
@@ -22076,7 +22076,7 @@
       <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr">
         <is>
-          <t>substance dependence</t>
+          <t>addiction strength</t>
         </is>
       </c>
       <c r="F634" t="inlineStr"/>
@@ -23558,7 +23558,7 @@
       <c r="M682" t="inlineStr"/>
       <c r="N682" t="inlineStr">
         <is>
-          <t>b is a generically dependent continuant = Def. b is a continuant that g-depends_on one or more other entities. (axiom label in BFO2 Reference: [074-001])</t>
+          <t>A continuant that is dependent on one or other independent continuant bearers. For every instance of A requires some instance of (an independent continuant type) B but which instance of B serves can change from time to time.</t>
         </is>
       </c>
     </row>
@@ -23728,7 +23728,7 @@
       <c r="D688" t="inlineStr"/>
       <c r="E688" t="inlineStr">
         <is>
-          <t>spécification d’intervalle de dose</t>
+          <t>dose range specification</t>
         </is>
       </c>
       <c r="F688" t="inlineStr"/>
@@ -23741,7 +23741,7 @@
       <c r="M688" t="inlineStr"/>
       <c r="N688" t="inlineStr">
         <is>
-          <t>An information content entity that specifies the minimum and maximum quantities of drug product or active ingredient in a dose administration.</t>
+          <t>Une entité de contenu informationnel qui spécifie les quantités minimum et maximum de médicament ou d’ingrédient actif dans une administration de dose.</t>
         </is>
       </c>
     </row>
@@ -32560,7 +32560,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>BCIO:015604</t>
+          <t>BCIO:015722</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -32570,7 +32570,7 @@
       <c r="F1003" t="inlineStr"/>
       <c r="G1003" t="inlineStr">
         <is>
-          <t>personal history of intervention exposure for the same outcome population statistic</t>
+          <t>socioeconomic status category population statistic</t>
         </is>
       </c>
       <c r="H1003" t="inlineStr"/>
@@ -32581,14 +32581,14 @@
       <c r="M1003" t="inlineStr"/>
       <c r="N1003" t="inlineStr">
         <is>
-          <t>A population statistic about personal history of intervention exposure for the same outcome.</t>
+          <t>A population statistic about socioeconomic status category.</t>
         </is>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>BCIO:015606</t>
+          <t>BCIO:015724</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -32599,7 +32599,7 @@
       <c r="G1004" t="inlineStr"/>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>minimum personal history of intervention exposure for the same outcome population statistic</t>
+          <t>proportion socioeconomic status category population statistic</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr"/>
@@ -32609,14 +32609,14 @@
       <c r="M1004" t="inlineStr"/>
       <c r="N1004" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome population statistic that is the minimum value of personal history of intervention exposure for the same outcome in the population.</t>
+          <t>A socioeconomic status category population statistic that is the proportion of people that have a socioeconomic status category in the population.</t>
         </is>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>BCIO:015607</t>
+          <t>BCIO:015723</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -32627,7 +32627,7 @@
       <c r="G1005" t="inlineStr"/>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>maximum personal history of intervention exposure for the same outcome population statistic</t>
+          <t>percentage socioeconomic status category population statistic</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr"/>
@@ -32637,14 +32637,14 @@
       <c r="M1005" t="inlineStr"/>
       <c r="N1005" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome population statistic that is the maximum value of personal history of intervention exposure for the same outcome in the population.</t>
+          <t>A socioeconomic status category population statistic that is the percentage of people that have a socioeconomic status category in the population.</t>
         </is>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>BCIO:015609</t>
+          <t>BCIO:015604</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -32652,12 +32652,12 @@
       <c r="D1006" t="inlineStr"/>
       <c r="E1006" t="inlineStr"/>
       <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr"/>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>percentage personal history of intervention exposure for the same outcome population statistic</t>
-        </is>
-      </c>
+      <c r="G1006" t="inlineStr">
+        <is>
+          <t>personal history of intervention exposure for the same outcome population statistic</t>
+        </is>
+      </c>
+      <c r="H1006" t="inlineStr"/>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr"/>
@@ -32665,14 +32665,14 @@
       <c r="M1006" t="inlineStr"/>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome population statistic that is the percentage value of personal history of intervention exposure for the same outcome in the population.</t>
+          <t>A population statistic about personal history of intervention exposure for the same outcome.</t>
         </is>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>BCIO:015605</t>
+          <t>BCIO:015606</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -32683,7 +32683,7 @@
       <c r="G1007" t="inlineStr"/>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>mean personal history of intervention exposure for the same outcome population statistic</t>
+          <t>minimum personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr"/>
@@ -32693,14 +32693,14 @@
       <c r="M1007" t="inlineStr"/>
       <c r="N1007" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome population statistic that is the mean value of personal history of intervention exposure for the same outcome in the population.</t>
+          <t>A personal history of intervention exposure for the same outcome population statistic that is the minimum value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>BCIO:015608</t>
+          <t>BCIO:015607</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -32711,7 +32711,7 @@
       <c r="G1008" t="inlineStr"/>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>median personal history of intervention exposure for the same outcome population statistic</t>
+          <t>maximum personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr"/>
@@ -32721,14 +32721,14 @@
       <c r="M1008" t="inlineStr"/>
       <c r="N1008" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome population statistic that is the median value of personal history of intervention exposure for the same outcome in the population.</t>
+          <t>A personal history of intervention exposure for the same outcome population statistic that is the maximum value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>BCIO:015610</t>
+          <t>BCIO:015609</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -32739,7 +32739,7 @@
       <c r="G1009" t="inlineStr"/>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>proportion personal history of intervention exposure for the same outcome population statistic</t>
+          <t>percentage personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr"/>
@@ -32749,14 +32749,14 @@
       <c r="M1009" t="inlineStr"/>
       <c r="N1009" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome population statistic that is the proportion of individuals having a personal history of intervention exposure for the same outcome in the population.</t>
+          <t>A personal history of intervention exposure for the same outcome population statistic that is the percentage value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>BCIO:015722</t>
+          <t>BCIO:015605</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -32764,12 +32764,12 @@
       <c r="D1010" t="inlineStr"/>
       <c r="E1010" t="inlineStr"/>
       <c r="F1010" t="inlineStr"/>
-      <c r="G1010" t="inlineStr">
-        <is>
-          <t>socioeconomic status category population statistic</t>
-        </is>
-      </c>
-      <c r="H1010" t="inlineStr"/>
+      <c r="G1010" t="inlineStr"/>
+      <c r="H1010" t="inlineStr">
+        <is>
+          <t>mean personal history of intervention exposure for the same outcome population statistic</t>
+        </is>
+      </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr"/>
@@ -32777,14 +32777,14 @@
       <c r="M1010" t="inlineStr"/>
       <c r="N1010" t="inlineStr">
         <is>
-          <t>A population statistic about socioeconomic status category.</t>
+          <t>A personal history of intervention exposure for the same outcome population statistic that is the mean value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>BCIO:015724</t>
+          <t>BCIO:015608</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -32795,7 +32795,7 @@
       <c r="G1011" t="inlineStr"/>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>proportion socioeconomic status category population statistic</t>
+          <t>median personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr"/>
@@ -32805,14 +32805,14 @@
       <c r="M1011" t="inlineStr"/>
       <c r="N1011" t="inlineStr">
         <is>
-          <t>A socioeconomic status category population statistic that is the proportion of people that have a socioeconomic status category in the population.</t>
+          <t>A personal history of intervention exposure for the same outcome population statistic that is the median value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>BCIO:015723</t>
+          <t>BCIO:015610</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -32823,7 +32823,7 @@
       <c r="G1012" t="inlineStr"/>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>percentage socioeconomic status category population statistic</t>
+          <t>proportion personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr"/>
@@ -32833,7 +32833,7 @@
       <c r="M1012" t="inlineStr"/>
       <c r="N1012" t="inlineStr">
         <is>
-          <t>A socioeconomic status category population statistic that is the percentage of people that have a socioeconomic status category in the population.</t>
+          <t>A personal history of intervention exposure for the same outcome population statistic that is the proportion of individuals having a personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
     </row>
@@ -43907,7 +43907,7 @@
       <c r="M1400" t="inlineStr"/>
       <c r="N1400" t="inlineStr">
         <is>
-          <t>An occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t.</t>
+          <t>p is a process = Def. p is an occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t. (axiom label in BFO2 Reference: [083-003])</t>
         </is>
       </c>
     </row>
@@ -44047,7 +44047,7 @@
       <c r="M1405" t="inlineStr"/>
       <c r="N1405" t="inlineStr">
         <is>
-          <t>A &lt;bodily process&gt; of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="P1405" t="inlineStr">
@@ -44816,7 +44816,7 @@
       <c r="M1431" t="inlineStr"/>
       <c r="N1431" t="inlineStr">
         <is>
-          <t>An &lt;expressive behaviour&gt; that involves the transmission of information between two or more people.</t>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
       <c r="O1431" t="inlineStr">
@@ -44854,7 +44854,7 @@
       <c r="M1432" t="inlineStr"/>
       <c r="N1432" t="inlineStr">
         <is>
-          <t>A &lt;human communication behaviour&gt; in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="O1432" t="inlineStr">
@@ -45032,7 +45032,7 @@
       <c r="M1438" t="inlineStr"/>
       <c r="N1438" t="inlineStr">
         <is>
-          <t>A &lt;human communication behaviour&gt; in which the information that is communicated is encoded in language.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="O1438" t="inlineStr">
@@ -46302,7 +46302,7 @@
       <c r="M1483" t="inlineStr"/>
       <c r="N1483" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that relates to the social environment.</t>
+          <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
       <c r="R1483" t="inlineStr">
@@ -46439,7 +46439,7 @@
       <c r="M1487" t="inlineStr"/>
       <c r="N1487" t="inlineStr">
         <is>
-          <t>An &lt;expressive behaviour&gt; that involves the transmission of information between two or more people.</t>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
       <c r="O1487" t="inlineStr">
@@ -46477,7 +46477,7 @@
       <c r="M1488" t="inlineStr"/>
       <c r="N1488" t="inlineStr">
         <is>
-          <t>A &lt;human communication behaviour&gt; in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="O1488" t="inlineStr">
@@ -46655,7 +46655,7 @@
       <c r="M1494" t="inlineStr"/>
       <c r="N1494" t="inlineStr">
         <is>
-          <t>A &lt;human communication behaviour&gt; in which the information that is communicated is encoded in language.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="O1494" t="inlineStr">
@@ -52193,7 +52193,7 @@
       <c r="M1682" t="inlineStr"/>
       <c r="N1682" t="inlineStr">
         <is>
-          <t xml:space="preserve"> it confers intentionality on the mental process.</t>
+          <t>That part of the mental process that confers a subjective perspective, a phenomenology, an experience of the mental process of which it is a part</t>
         </is>
       </c>
       <c r="P1682" t="inlineStr">
@@ -52472,7 +52472,7 @@
       <c r="M1690" t="inlineStr"/>
       <c r="N1690" t="inlineStr">
         <is>
-          <t>A process in which at least one bodily component of an organism participates.</t>
+          <t>A &lt;process&gt; in which at least one bodily component of an organism participates.</t>
         </is>
       </c>
       <c r="P1690" t="inlineStr">
@@ -53735,7 +53735,7 @@
       <c r="M1726" t="inlineStr"/>
       <c r="N1726" t="inlineStr">
         <is>
-          <t>A &lt;bodily process&gt; that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
+          <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
         </is>
       </c>
       <c r="P1726" t="inlineStr">
@@ -53799,7 +53799,7 @@
       <c r="E1728" t="inlineStr"/>
       <c r="F1728" t="inlineStr">
         <is>
-          <t>affective appraisal process</t>
+          <t>emotional-relevance appraisal process</t>
         </is>
       </c>
       <c r="G1728" t="inlineStr"/>
@@ -53811,7 +53811,7 @@
       <c r="M1728" t="inlineStr"/>
       <c r="N1728" t="inlineStr">
         <is>
-          <t>A mental process that gives rise to an appraisal.</t>
+          <t>A &lt;mental process&gt; that gives rise to an appraisal.</t>
         </is>
       </c>
       <c r="O1728" t="inlineStr">
@@ -54092,7 +54092,7 @@
       <c r="M1735" t="inlineStr"/>
       <c r="N1735" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
+          <t>A mental process that involves neuronal activity in response to a sensory stimuli but which is not the subject of consciousness.</t>
         </is>
       </c>
     </row>
@@ -54315,7 +54315,7 @@
       <c r="M1742" t="inlineStr"/>
       <c r="N1742" t="inlineStr">
         <is>
-          <t>A mental process that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
+          <t>A &lt;mental process&gt; that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
         </is>
       </c>
       <c r="R1742" t="inlineStr">
@@ -55197,7 +55197,7 @@
       <c r="M1766" t="inlineStr"/>
       <c r="N1766" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
+          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
         </is>
       </c>
       <c r="O1766" t="inlineStr">
@@ -56235,7 +56235,7 @@
       <c r="M1793" t="inlineStr"/>
       <c r="N1793" t="inlineStr">
         <is>
-          <t>A decrease in a behavioural response to a repeated stimulus.</t>
+          <t>A decrease in a behavioral response to a repeated stimulus. This is exemplified by the failure of a person to show a startle response to a loud noise that has been repeatedly presented.</t>
         </is>
       </c>
       <c r="R1793" t="inlineStr">
@@ -56886,7 +56886,7 @@
       <c r="M1811" t="inlineStr"/>
       <c r="N1811" t="inlineStr">
         <is>
-          <t xml:space="preserve">An affective process is any process that has positive or negative valence. </t>
+          <t>A &lt;mental process&gt; that has positive or negative valence.</t>
         </is>
       </c>
       <c r="O1811" t="inlineStr">
@@ -56995,7 +56995,7 @@
       <c r="M1814" t="inlineStr"/>
       <c r="N1814" t="inlineStr">
         <is>
-          <t>An &lt;affective process&gt; that involves the experience of internal or external sensory stimuli.</t>
+          <t>The subjective emotional feeling is that (fiat) part of the emotion process by which the organism experiences its own emotion.</t>
         </is>
       </c>
     </row>
@@ -57056,7 +57056,7 @@
       <c r="M1816" t="inlineStr"/>
       <c r="N1816" t="inlineStr">
         <is>
-          <t>A subjective affective feeling that is a strong feeling of desire or a strong feeling of urge.</t>
+          <t>A &lt;subjective affective feeling&gt; involving a strong desire or urge.</t>
         </is>
       </c>
       <c r="R1816" t="inlineStr">
@@ -57089,7 +57089,7 @@
       <c r="M1817" t="inlineStr"/>
       <c r="N1817" t="inlineStr">
         <is>
-          <t>A subjective emotional feeling involving positive affect associated with reduction in a feeling of need.</t>
+          <t>A feeling involving positive affect associated with reduction in a feeling of need.</t>
         </is>
       </c>
       <c r="O1817" t="inlineStr">
@@ -57137,7 +57137,7 @@
       <c r="M1818" t="inlineStr"/>
       <c r="N1818" t="inlineStr">
         <is>
-          <t>A &lt;subjective affective feeling&gt; of tiredness, needing sleep.</t>
+          <t>A subjective affective feeling of a need for sleep.</t>
         </is>
       </c>
       <c r="R1818" t="inlineStr">
@@ -57198,7 +57198,7 @@
       <c r="M1820" t="inlineStr"/>
       <c r="N1820" t="inlineStr">
         <is>
-          <t>A subjective affective feeling of having lots of energy, being energetic.</t>
+          <t>A &lt;subjective affective feeling&gt; of having lots of energy, being energetic.</t>
         </is>
       </c>
       <c r="R1820" t="inlineStr">
@@ -57320,7 +57320,9 @@
       <c r="M1824" t="inlineStr"/>
       <c r="N1824" t="inlineStr">
         <is>
-          <t>A &lt;subjective affective feeling&gt; in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
+          <t>A subjective affective feeling in an organism S, involving two integrated levels: 
+(a) activation of the nociceptive system and associated emotion generating brain components of S, and 
+(b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
         </is>
       </c>
       <c r="P1824" t="inlineStr">
@@ -57680,7 +57682,7 @@
       <c r="M1834" t="inlineStr"/>
       <c r="N1834" t="inlineStr">
         <is>
-          <t>An &lt;affective process&gt; that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
+          <t>An affective process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
         </is>
       </c>
     </row>
@@ -57952,7 +57954,7 @@
       <c r="M1842" t="inlineStr"/>
       <c r="N1842" t="inlineStr">
         <is>
-          <t>Surprise with a positive valence</t>
+          <t>&lt;Surprise&gt; with a positive valence.</t>
         </is>
       </c>
       <c r="R1842" t="inlineStr">
@@ -57990,7 +57992,7 @@
       <c r="M1843" t="inlineStr"/>
       <c r="N1843" t="inlineStr">
         <is>
-          <t>&lt;Surprise&gt; with a negative valence.</t>
+          <t>Surprise with a negative valence.</t>
         </is>
       </c>
       <c r="R1843" t="inlineStr">
@@ -58487,7 +58489,7 @@
       <c r="M1857" t="inlineStr"/>
       <c r="N1857" t="inlineStr">
         <is>
-          <t>&lt;Disgust&gt; elicited by some kinds of especially egregious moral violations.</t>
+          <t>Disgust elicited by some kinds of especially egregious moral violations. [Source: OCEAS]</t>
         </is>
       </c>
       <c r="R1857" t="inlineStr">
@@ -58591,7 +58593,7 @@
       <c r="M1860" t="inlineStr"/>
       <c r="N1860" t="inlineStr">
         <is>
-          <t>A positive emotion which is experienced in reaction to a positive experience or event. [Source: OCEAS]</t>
+          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
         </is>
       </c>
       <c r="R1860" t="inlineStr">
@@ -58615,7 +58617,7 @@
       <c r="H1861" t="inlineStr"/>
       <c r="I1861" t="inlineStr">
         <is>
-          <t>jouissance</t>
+          <t>Genuss</t>
         </is>
       </c>
       <c r="J1861" t="inlineStr"/>
@@ -58690,7 +58692,7 @@
       <c r="M1863" t="inlineStr"/>
       <c r="N1863" t="inlineStr">
         <is>
-          <t>A &lt;emotion process&gt; is an emotion that has a negative valence.</t>
+          <t>A negative emotion is an emotion that has a negative valence.</t>
         </is>
       </c>
       <c r="O1863" t="inlineStr">
@@ -59902,7 +59904,7 @@
       <c r="M1895" t="inlineStr"/>
       <c r="N1895" t="inlineStr">
         <is>
-          <t>A &lt;bodily process&gt; of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="P1895" t="inlineStr">
@@ -60671,7 +60673,7 @@
       <c r="M1921" t="inlineStr"/>
       <c r="N1921" t="inlineStr">
         <is>
-          <t>An &lt;expressive behaviour&gt; that involves the transmission of information between two or more people.</t>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
       <c r="O1921" t="inlineStr">
@@ -60709,7 +60711,7 @@
       <c r="M1922" t="inlineStr"/>
       <c r="N1922" t="inlineStr">
         <is>
-          <t>A &lt;human communication behaviour&gt; in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="O1922" t="inlineStr">
@@ -60887,7 +60889,7 @@
       <c r="M1928" t="inlineStr"/>
       <c r="N1928" t="inlineStr">
         <is>
-          <t>A &lt;human communication behaviour&gt; in which the information that is communicated is encoded in language.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="O1928" t="inlineStr">
@@ -62157,7 +62159,7 @@
       <c r="M1973" t="inlineStr"/>
       <c r="N1973" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that relates to the social environment.</t>
+          <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
       <c r="R1973" t="inlineStr">
@@ -62294,7 +62296,7 @@
       <c r="M1977" t="inlineStr"/>
       <c r="N1977" t="inlineStr">
         <is>
-          <t>An &lt;expressive behaviour&gt; that involves the transmission of information between two or more people.</t>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
       <c r="O1977" t="inlineStr">
@@ -62332,7 +62334,7 @@
       <c r="M1978" t="inlineStr"/>
       <c r="N1978" t="inlineStr">
         <is>
-          <t>A &lt;human communication behaviour&gt; in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="O1978" t="inlineStr">
@@ -62510,7 +62512,7 @@
       <c r="M1984" t="inlineStr"/>
       <c r="N1984" t="inlineStr">
         <is>
-          <t>A &lt;human communication behaviour&gt; in which the information that is communicated is encoded in language.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="O1984" t="inlineStr">
